--- a/哈工大/通信/AGV.xlsx
+++ b/哈工大/通信/AGV.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\App\Winform-UdpSever\哈工大\通信\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24339BB-2559-4424-834E-C0AED62F69C4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E58CE74-55EA-4838-944D-7CDB13DD5190}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="179017" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -85,283 +85,284 @@
     <t>当前速度档位</t>
   </si>
   <si>
+    <t>当前模式</t>
+  </si>
+  <si>
+    <t>自动：0，手动：1</t>
+  </si>
+  <si>
+    <t>当前方向</t>
+  </si>
+  <si>
+    <t>前进：0，后退：1</t>
+  </si>
+  <si>
+    <t>当前分叉方向</t>
+  </si>
+  <si>
+    <t>磁导航数据1</t>
+  </si>
+  <si>
+    <t>16个点按位取点</t>
+  </si>
+  <si>
+    <t>磁导航数据2</t>
+  </si>
+  <si>
+    <t>磁导航数据3</t>
+  </si>
+  <si>
+    <t>磁导航数据4</t>
+  </si>
+  <si>
+    <t>急停按钮状态</t>
+  </si>
+  <si>
+    <t>正常：0，急停：1</t>
+  </si>
+  <si>
+    <t>滚筒左侧红外</t>
+  </si>
+  <si>
+    <t>正常：0，触发：1</t>
+  </si>
+  <si>
+    <t>滚筒右侧红外</t>
+  </si>
+  <si>
+    <t>寄存器清零原则：发送方清理</t>
+  </si>
+  <si>
+    <t>扩散炉炉号</t>
+  </si>
+  <si>
+    <t>AGV到指定位置</t>
+  </si>
+  <si>
+    <t>AGV接收托盘准备就绪</t>
+  </si>
+  <si>
+    <t>接收完成</t>
+  </si>
+  <si>
+    <t>备用</t>
+  </si>
+  <si>
+    <t>允许AGV出托盘</t>
+  </si>
+  <si>
+    <t>接托盘完成</t>
+  </si>
+  <si>
+    <t>请求接收托盘</t>
+  </si>
+  <si>
+    <t>PE炉炉号</t>
+  </si>
+  <si>
+    <t>AGV-&gt;PLC</t>
+  </si>
+  <si>
+    <t>PLC-&gt;AGV</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dbus</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModbusTCP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profinet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGV和调度系统之间数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDO更新，即时消息，条件触发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task_Recived</t>
+  </si>
+  <si>
+    <t>开始执行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task_RunStart</t>
+  </si>
+  <si>
+    <t>执行完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task_RunFinish</t>
+  </si>
+  <si>
+    <t>上一个位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position_Last</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position_Now</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position_next</t>
+  </si>
+  <si>
+    <t>地标值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunState</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未就绪0,运行1，待命2，充电3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>正常0 机械碰撞1 出轨2 红外避障3 电量低4 驱动断电5 (位)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGV和PLC之间数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoveID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Position_OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_RecTray_Ready</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_RecTray_Finish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_DownTray_allowed</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_PLCRecTray_Finish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_RecTray_start</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatteryLevel</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>BatteryCycleTimes</t>
+  </si>
+  <si>
+    <t>LowPowerWarningVal</t>
+  </si>
+  <si>
+    <t>SpeedClass</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run_Mode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run_Direction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForkingDirection</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:左分 2:右分 11:前左分 12:前右分 21:后左分 22:后右分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagneticNavigation_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagneticNavigation_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagneticNavigation_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagneticNavigation_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sta_EmergencyStop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR_Roller_L</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR_Roller_R</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>高速，中速，低速，对接速度</t>
-  </si>
-  <si>
-    <t>当前模式</t>
-  </si>
-  <si>
-    <t>自动：0，手动：1</t>
-  </si>
-  <si>
-    <t>当前方向</t>
-  </si>
-  <si>
-    <t>前进：0，后退：1</t>
-  </si>
-  <si>
-    <t>当前分叉方向</t>
-  </si>
-  <si>
-    <t>磁导航数据1</t>
-  </si>
-  <si>
-    <t>16个点按位取点</t>
-  </si>
-  <si>
-    <t>磁导航数据2</t>
-  </si>
-  <si>
-    <t>磁导航数据3</t>
-  </si>
-  <si>
-    <t>磁导航数据4</t>
-  </si>
-  <si>
-    <t>急停按钮状态</t>
-  </si>
-  <si>
-    <t>正常：0，急停：1</t>
-  </si>
-  <si>
-    <t>滚筒左侧红外</t>
-  </si>
-  <si>
-    <t>正常：0，触发：1</t>
-  </si>
-  <si>
-    <t>滚筒右侧红外</t>
-  </si>
-  <si>
-    <t>寄存器清零原则：发送方清理</t>
-  </si>
-  <si>
-    <t>扩散炉炉号</t>
-  </si>
-  <si>
-    <t>AGV到指定位置</t>
-  </si>
-  <si>
-    <t>AGV接收托盘准备就绪</t>
-  </si>
-  <si>
-    <t>接收完成</t>
-  </si>
-  <si>
-    <t>备用</t>
-  </si>
-  <si>
-    <t>允许AGV出托盘</t>
-  </si>
-  <si>
-    <t>接托盘完成</t>
-  </si>
-  <si>
-    <t>请求接收托盘</t>
-  </si>
-  <si>
-    <t>PE炉炉号</t>
-  </si>
-  <si>
-    <t>AGV-&gt;PLC</t>
-  </si>
-  <si>
-    <t>PLC-&gt;AGV</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dbus</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModbusTCP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profinet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGV和调度系统之间数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task_ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDO更新，即时消息，条件触发</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task_Recived</t>
-  </si>
-  <si>
-    <t>开始执行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task_RunStart</t>
-  </si>
-  <si>
-    <t>执行完成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task_RunFinish</t>
-  </si>
-  <si>
-    <t>上一个位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position_Last</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position_Now</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position_next</t>
-  </si>
-  <si>
-    <t>地标值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunState</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>未就绪0,运行1，待命2，充电3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
-    <t>正常0 机械碰撞1 出轨2 红外避障3 电量低4 驱动断电5 (位)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGV和PLC之间数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoveID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_Position_OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_RecTray_Ready</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_RecTray_Finish</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_DownTray_allowed</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_PLCRecTray_Finish</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_RecTray_start</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatteryLevel</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>BatteryCycleTimes</t>
-  </si>
-  <si>
-    <t>LowPowerWarningVal</t>
-  </si>
-  <si>
-    <t>SpeedClass</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run_Mode</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run_Direction</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForkingDirection</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:左分 2:右分 11:前左分 12:前右分 21:后左分 22:后右分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagneticNavigation_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagneticNavigation_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagneticNavigation_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagneticNavigation_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sta_EmergencyStop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR_Roller_L</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR_Roller_R</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -622,6 +623,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,32 +656,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -955,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -987,48 +988,48 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6">
@@ -1036,24 +1037,24 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="7">
@@ -1061,22 +1062,22 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="7">
@@ -1084,22 +1085,22 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="7">
@@ -1107,22 +1108,22 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="7">
@@ -1130,22 +1131,22 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="7">
@@ -1153,69 +1154,69 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="F9" s="7">
         <v>7</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="F10" s="7">
         <v>8</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="7">
         <v>9</v>
@@ -1225,32 +1226,32 @@
       <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="8">
         <v>20</v>
       </c>
@@ -1259,23 +1260,23 @@
         <v>50</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>39</v>
+      <c r="A14" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="8">
         <v>21</v>
       </c>
@@ -1283,22 +1284,22 @@
       <c r="H14" s="7">
         <v>51</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>40</v>
+      <c r="A15" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="8">
         <v>22</v>
       </c>
@@ -1306,22 +1307,22 @@
       <c r="H15" s="7">
         <v>52</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>41</v>
+      <c r="A16" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="8">
         <v>23</v>
       </c>
@@ -1329,20 +1330,20 @@
       <c r="H16" s="7">
         <v>53</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>42</v>
+      <c r="A17" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="8">
         <v>24</v>
       </c>
@@ -1350,20 +1351,20 @@
       <c r="H17" s="7">
         <v>54</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>42</v>
+      <c r="A18" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="8">
         <v>25</v>
       </c>
@@ -1371,22 +1372,22 @@
       <c r="H18" s="7">
         <v>55</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>43</v>
+      <c r="A19" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="8">
         <v>26</v>
       </c>
@@ -1394,22 +1395,22 @@
       <c r="H19" s="7">
         <v>56</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>44</v>
+      <c r="A20" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="8">
         <v>27</v>
       </c>
@@ -1417,22 +1418,22 @@
       <c r="H20" s="7">
         <v>57</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>45</v>
+      <c r="A21" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="8">
         <v>28</v>
       </c>
@@ -1440,20 +1441,20 @@
       <c r="H21" s="7">
         <v>58</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>42</v>
+      <c r="A22" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="8">
         <v>29</v>
       </c>
@@ -1461,20 +1462,20 @@
       <c r="H22" s="7">
         <v>59</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>42</v>
+      <c r="A23" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="8">
         <v>30</v>
       </c>
@@ -1482,22 +1483,22 @@
       <c r="H23" s="7">
         <v>60</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="8">
         <v>31</v>
       </c>
@@ -1505,22 +1506,22 @@
       <c r="H24" s="7">
         <v>61</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>39</v>
+      <c r="A25" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E25" s="19"/>
       <c r="F25" s="8">
         <v>32</v>
       </c>
@@ -1528,22 +1529,22 @@
       <c r="H25" s="7">
         <v>62</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>40</v>
+      <c r="A26" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="8">
         <v>33</v>
       </c>
@@ -1551,22 +1552,22 @@
       <c r="H26" s="7">
         <v>63</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>41</v>
+      <c r="A27" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E27" s="19"/>
       <c r="F27" s="8">
         <v>34</v>
       </c>
@@ -1574,20 +1575,20 @@
       <c r="H27" s="7">
         <v>64</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>42</v>
+      <c r="A28" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E28" s="19"/>
       <c r="F28" s="8">
         <v>35</v>
       </c>
@@ -1595,20 +1596,20 @@
       <c r="H28" s="7">
         <v>65</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>42</v>
+      <c r="A29" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E29" s="19"/>
       <c r="F29" s="8">
         <v>36</v>
       </c>
@@ -1616,22 +1617,22 @@
       <c r="H29" s="7">
         <v>66</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>43</v>
+      <c r="A30" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E30" s="19"/>
       <c r="F30" s="8">
         <v>37</v>
       </c>
@@ -1639,22 +1640,22 @@
       <c r="H30" s="7">
         <v>67</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>44</v>
+      <c r="A31" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E31" s="19"/>
       <c r="F31" s="8">
         <v>38</v>
       </c>
@@ -1662,22 +1663,22 @@
       <c r="H31" s="7">
         <v>68</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>45</v>
+      <c r="A32" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E32" s="19"/>
       <c r="F32" s="8">
         <v>39</v>
       </c>
@@ -1685,20 +1686,20 @@
       <c r="H32" s="7">
         <v>69</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>42</v>
+      <c r="A33" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E33" s="19"/>
       <c r="F33" s="8">
         <v>40</v>
       </c>
@@ -1706,20 +1707,20 @@
       <c r="H33" s="7">
         <v>70</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>42</v>
+      <c r="A34" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="E34" s="19"/>
       <c r="F34" s="8">
         <v>41</v>
       </c>
@@ -1730,32 +1731,32 @@
       <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
+      <c r="A35" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="7">
@@ -1768,19 +1769,19 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="7">
@@ -1791,19 +1792,19 @@
       <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="7">
@@ -1814,19 +1815,19 @@
       <c r="I38" s="29"/>
     </row>
     <row r="39" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="7">
@@ -1837,20 +1838,20 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>21</v>
+      <c r="E40" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="F40" s="7">
         <v>55</v>
@@ -1860,20 +1861,20 @@
       <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="F41" s="7">
         <v>56</v>
@@ -1883,20 +1884,20 @@
       <c r="I41" s="29"/>
     </row>
     <row r="42" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>25</v>
       </c>
       <c r="F42" s="7">
         <v>57</v>
@@ -1906,20 +1907,20 @@
       <c r="I42" s="29"/>
     </row>
     <row r="43" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>26</v>
+      <c r="A43" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="7">
         <v>58</v>
@@ -1929,20 +1930,20 @@
       <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="F44" s="7">
         <v>59</v>
@@ -1952,20 +1953,20 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>29</v>
+      <c r="A45" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>28</v>
+      <c r="E45" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="F45" s="7">
         <v>60</v>
@@ -1975,20 +1976,20 @@
       <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>30</v>
+      <c r="A46" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>28</v>
+      <c r="E46" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="F46" s="7">
         <v>61</v>
@@ -1998,20 +1999,20 @@
       <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>31</v>
+      <c r="A47" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>28</v>
+      <c r="E47" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="F47" s="7">
         <v>62</v>
@@ -2021,20 +2022,20 @@
       <c r="I47" s="29"/>
     </row>
     <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="F48" s="7">
         <v>63</v>
@@ -2044,20 +2045,20 @@
       <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="F49" s="7">
         <v>64</v>
@@ -2067,20 +2068,20 @@
       <c r="I49" s="29"/>
     </row>
     <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
-        <v>36</v>
+      <c r="A50" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>35</v>
+      <c r="E50" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="F50" s="7">
         <v>65</v>
@@ -2094,7 +2095,7 @@
     </row>
     <row r="52" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="13"/>
     </row>
@@ -2104,12 +2105,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I36:I50"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="I3:I11"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="I13:I34"/>
     <mergeCell ref="A35:I35"/>
-    <mergeCell ref="I36:I50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
